--- a/SchedulingData/dynamic14/pso/scheduling1_16.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.1</v>
+        <v>61.6</v>
       </c>
       <c r="E2" t="n">
-        <v>27.48</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74.8</v>
+        <v>59.14</v>
       </c>
       <c r="E3" t="n">
-        <v>26.16</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65.54000000000001</v>
+        <v>49.78</v>
       </c>
       <c r="E4" t="n">
-        <v>27.096</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65.54000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="D5" t="n">
-        <v>125.52</v>
+        <v>116.28</v>
       </c>
       <c r="E5" t="n">
-        <v>23.708</v>
+        <v>21.672</v>
       </c>
     </row>
     <row r="6">
@@ -542,264 +542,264 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.86</v>
+        <v>62.78</v>
       </c>
       <c r="E6" t="n">
-        <v>26.304</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74.8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.1</v>
+        <v>78.7</v>
       </c>
       <c r="E7" t="n">
-        <v>21.66</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>151.1</v>
+        <v>116.28</v>
       </c>
       <c r="D8" t="n">
-        <v>199.48</v>
+        <v>178.98</v>
       </c>
       <c r="E8" t="n">
-        <v>18.932</v>
+        <v>19.472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.86</v>
+        <v>178.98</v>
       </c>
       <c r="D9" t="n">
-        <v>111.66</v>
+        <v>243.9</v>
       </c>
       <c r="E9" t="n">
-        <v>24.104</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37.1</v>
+        <v>243.9</v>
       </c>
       <c r="D10" t="n">
-        <v>79.26000000000001</v>
+        <v>277.9</v>
       </c>
       <c r="E10" t="n">
-        <v>24.884</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>79.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>130.28</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>21.892</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>49.78</v>
       </c>
       <c r="D12" t="n">
-        <v>49.44</v>
+        <v>139.08</v>
       </c>
       <c r="E12" t="n">
-        <v>26.256</v>
+        <v>23.872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125.52</v>
+        <v>277.9</v>
       </c>
       <c r="D13" t="n">
-        <v>164.42</v>
+        <v>335</v>
       </c>
       <c r="E13" t="n">
-        <v>20.948</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>130.28</v>
+        <v>335</v>
       </c>
       <c r="D14" t="n">
-        <v>178.64</v>
+        <v>388.76</v>
       </c>
       <c r="E14" t="n">
-        <v>18.676</v>
+        <v>6.464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>59.14</v>
       </c>
       <c r="D15" t="n">
-        <v>75.5</v>
+        <v>128.94</v>
       </c>
       <c r="E15" t="n">
-        <v>26.62</v>
+        <v>21.396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>178.64</v>
+        <v>388.76</v>
       </c>
       <c r="D16" t="n">
-        <v>267.84</v>
+        <v>432.54</v>
       </c>
       <c r="E16" t="n">
-        <v>14.356</v>
+        <v>3.216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>75.5</v>
+        <v>62.78</v>
       </c>
       <c r="D17" t="n">
-        <v>127.8</v>
+        <v>133.78</v>
       </c>
       <c r="E17" t="n">
-        <v>23.5</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>111.66</v>
+        <v>139.08</v>
       </c>
       <c r="D18" t="n">
-        <v>186.56</v>
+        <v>204.98</v>
       </c>
       <c r="E18" t="n">
-        <v>20.684</v>
+        <v>20.912</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49.44</v>
+        <v>128.94</v>
       </c>
       <c r="D19" t="n">
-        <v>122.34</v>
+        <v>190.98</v>
       </c>
       <c r="E19" t="n">
-        <v>21.576</v>
+        <v>17.812</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>127.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>168.96</v>
+        <v>126.86</v>
       </c>
       <c r="E20" t="n">
-        <v>20.024</v>
+        <v>23.104</v>
       </c>
     </row>
     <row r="21">
@@ -827,150 +827,150 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>186.56</v>
+        <v>133.78</v>
       </c>
       <c r="D21" t="n">
-        <v>231.44</v>
+        <v>185</v>
       </c>
       <c r="E21" t="n">
-        <v>16.836</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>231.44</v>
+        <v>78.7</v>
       </c>
       <c r="D22" t="n">
-        <v>283.96</v>
+        <v>135.42</v>
       </c>
       <c r="E22" t="n">
-        <v>14.184</v>
+        <v>22.248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>164.42</v>
+        <v>190.98</v>
       </c>
       <c r="D23" t="n">
-        <v>239.82</v>
+        <v>237.98</v>
       </c>
       <c r="E23" t="n">
-        <v>17.988</v>
+        <v>14.732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>267.84</v>
+        <v>135.42</v>
       </c>
       <c r="D24" t="n">
-        <v>328.9</v>
+        <v>194.84</v>
       </c>
       <c r="E24" t="n">
-        <v>11.34</v>
+        <v>17.936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>168.96</v>
+        <v>204.98</v>
       </c>
       <c r="D25" t="n">
-        <v>244.56</v>
+        <v>258.42</v>
       </c>
       <c r="E25" t="n">
-        <v>16.064</v>
+        <v>17.688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>244.56</v>
+        <v>194.84</v>
       </c>
       <c r="D26" t="n">
-        <v>293.06</v>
+        <v>266.16</v>
       </c>
       <c r="E26" t="n">
-        <v>12.344</v>
+        <v>13.904</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>122.34</v>
+        <v>258.42</v>
       </c>
       <c r="D27" t="n">
-        <v>180.24</v>
+        <v>310.04</v>
       </c>
       <c r="E27" t="n">
-        <v>17.416</v>
+        <v>13.656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>293.06</v>
+        <v>237.98</v>
       </c>
       <c r="D28" t="n">
-        <v>364.76</v>
+        <v>280.14</v>
       </c>
       <c r="E28" t="n">
-        <v>8.263999999999999</v>
+        <v>12.136</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>199.48</v>
+        <v>280.14</v>
       </c>
       <c r="D29" t="n">
-        <v>261.62</v>
+        <v>347.04</v>
       </c>
       <c r="E29" t="n">
-        <v>15.348</v>
+        <v>8.055999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -998,131 +998,131 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>328.9</v>
+        <v>310.04</v>
       </c>
       <c r="D30" t="n">
-        <v>410.8</v>
+        <v>356.74</v>
       </c>
       <c r="E30" t="n">
-        <v>7.26</v>
+        <v>11.616</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>283.96</v>
+        <v>347.04</v>
       </c>
       <c r="D31" t="n">
-        <v>332.4</v>
+        <v>398.1</v>
       </c>
       <c r="E31" t="n">
-        <v>10.96</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>239.82</v>
+        <v>126.86</v>
       </c>
       <c r="D32" t="n">
-        <v>313.5</v>
+        <v>186.84</v>
       </c>
       <c r="E32" t="n">
-        <v>14.74</v>
+        <v>19.716</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>364.76</v>
+        <v>398.1</v>
       </c>
       <c r="D33" t="n">
-        <v>412.46</v>
+        <v>453.96</v>
       </c>
       <c r="E33" t="n">
-        <v>4.624</v>
+        <v>2.084</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>180.24</v>
+        <v>356.74</v>
       </c>
       <c r="D34" t="n">
-        <v>226.5</v>
+        <v>428.94</v>
       </c>
       <c r="E34" t="n">
-        <v>14.92</v>
+        <v>7.976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>226.5</v>
+        <v>186.84</v>
       </c>
       <c r="D35" t="n">
-        <v>295.72</v>
+        <v>231.8</v>
       </c>
       <c r="E35" t="n">
-        <v>10.608</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>313.5</v>
+        <v>185</v>
       </c>
       <c r="D36" t="n">
-        <v>388.16</v>
+        <v>243.48</v>
       </c>
       <c r="E36" t="n">
-        <v>12.364</v>
+        <v>15.672</v>
       </c>
     </row>
     <row r="37">
@@ -1131,245 +1131,245 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>261.62</v>
+        <v>453.96</v>
       </c>
       <c r="D37" t="n">
-        <v>315.48</v>
+        <v>526.79</v>
       </c>
       <c r="E37" t="n">
-        <v>12.092</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>388.16</v>
+        <v>526.79</v>
       </c>
       <c r="D38" t="n">
-        <v>422.34</v>
+        <v>563.89</v>
       </c>
       <c r="E38" t="n">
-        <v>10.076</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>412.46</v>
+        <v>266.16</v>
       </c>
       <c r="D39" t="n">
-        <v>451.12</v>
+        <v>321.3</v>
       </c>
       <c r="E39" t="n">
-        <v>1.888</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>451.12</v>
+        <v>432.54</v>
       </c>
       <c r="D40" t="n">
-        <v>529.14</v>
+        <v>481</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>315.48</v>
+        <v>481</v>
       </c>
       <c r="D41" t="n">
-        <v>387</v>
+        <v>561.84</v>
       </c>
       <c r="E41" t="n">
-        <v>8.06</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>332.4</v>
+        <v>428.94</v>
       </c>
       <c r="D42" t="n">
-        <v>390.74</v>
+        <v>497.48</v>
       </c>
       <c r="E42" t="n">
-        <v>7.736</v>
+        <v>4.752</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>529.14</v>
+        <v>321.3</v>
       </c>
       <c r="D43" t="n">
-        <v>598</v>
+        <v>383.4</v>
       </c>
       <c r="E43" t="n">
-        <v>27.264</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>387</v>
+        <v>231.8</v>
       </c>
       <c r="D44" t="n">
-        <v>459.18</v>
+        <v>277.4</v>
       </c>
       <c r="E44" t="n">
-        <v>3.952</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>422.34</v>
+        <v>243.48</v>
       </c>
       <c r="D45" t="n">
-        <v>490.98</v>
+        <v>306.58</v>
       </c>
       <c r="E45" t="n">
-        <v>6.332</v>
+        <v>10.992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>295.72</v>
+        <v>277.4</v>
       </c>
       <c r="D46" t="n">
-        <v>381.52</v>
+        <v>321.24</v>
       </c>
       <c r="E46" t="n">
-        <v>6.128</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>381.52</v>
+        <v>383.4</v>
       </c>
       <c r="D47" t="n">
-        <v>421.94</v>
+        <v>456.66</v>
       </c>
       <c r="E47" t="n">
-        <v>3.216</v>
+        <v>4.184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>459.18</v>
+        <v>321.24</v>
       </c>
       <c r="D48" t="n">
-        <v>516.1799999999999</v>
+        <v>397.3</v>
       </c>
       <c r="E48" t="n">
-        <v>0.872</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>516.1799999999999</v>
+        <v>397.3</v>
       </c>
       <c r="D49" t="n">
-        <v>605.9400000000001</v>
+        <v>435.12</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>4.508</v>
       </c>
     </row>
     <row r="50">
@@ -1378,55 +1378,55 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>390.74</v>
+        <v>306.58</v>
       </c>
       <c r="D50" t="n">
-        <v>485.34</v>
+        <v>360.04</v>
       </c>
       <c r="E50" t="n">
-        <v>2.876</v>
+        <v>7.776</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>490.98</v>
+        <v>360.04</v>
       </c>
       <c r="D51" t="n">
-        <v>542.38</v>
+        <v>405.14</v>
       </c>
       <c r="E51" t="n">
-        <v>4.292</v>
+        <v>4.396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>410.8</v>
+        <v>405.14</v>
       </c>
       <c r="D52" t="n">
-        <v>477.22</v>
+        <v>494.44</v>
       </c>
       <c r="E52" t="n">
-        <v>3.228</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="53">
@@ -1435,14 +1435,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>485.34</v>
+        <v>494.44</v>
       </c>
       <c r="D53" t="n">
-        <v>561.49</v>
+        <v>571.29</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1450,21 +1450,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>561.49</v>
+        <v>435.12</v>
       </c>
       <c r="D54" t="n">
-        <v>628.61</v>
+        <v>491.12</v>
       </c>
       <c r="E54" t="n">
-        <v>25.968</v>
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>491.12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>576.62</v>
+      </c>
+      <c r="E55" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
